--- a/medicine/Handicap/Grand_Corps_Malade/Grand_Corps_Malade.xlsx
+++ b/medicine/Handicap/Grand_Corps_Malade/Grand_Corps_Malade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabien Marsaud, dit Grand Corps Malade (parfois abrégé GCM), né le 31 juillet 1977 au Blanc-Mesnil (Seine-Saint-Denis), est un slameur, poète, auteur-compositeur-interprète et réalisateur français.
 En 2005, il acquiert une certaine notoriété et élargit son horizon de slameur. Il propose, entre autres, plusieurs représentations, seul face au public du Réservoir (club qui sert entre autres aux tournages du Jamel Comedy Club), réalise la première partie du concert de Cheb Mami sur le parvis du Stade de France et celle de Mouss et Hakim (également membres de Zebda) à la Boule Noire, etc. Puis, en 2006, il publie son premier album, Midi 20, classé 10e sur 200 parmi les meilleures ventes d'albums de l'année. En 2008, il sort son deuxième album, Enfant de la ville, plus profond dans les textes et avec des accompagnements musicaux plus affirmés.
@@ -516,31 +528,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Fabien Marsaud est né le 31 juillet 1977, au Blanc-Mesnil, dans le département de la Seine-Saint-Denis[1]. Sa mère est bibliothécaire[2] et son père, Jacques Marsaud, haut fonctionnaire territorial, d'orientation communiste, a été notamment secrétaire général des communes de Noisy-le-Sec et de Saint-Denis et directeur général des services du conseil général du Val-de-Marne puis de la communauté d'agglomération Plaine-Commune[3]. Il vit à Noisy-le-Sec avec ses parents et sa sœur aînée jusqu'en 1981.
-Son parcours scolaire est plutôt classique et très tôt le sport devient une passion[1]. Il écrit ses premiers textes vers l'âge de quinze ans[2], mais le sport l'emporte. Le jeune homme aime particulièrement le basketball, discipline dans laquelle il est très doué. Selon Bally Bagayoko, son entraîneur (devenu maire-adjoint de Saint-Denis), le jeune Fabien était « un pilier de l'équipe qui adorait transmettre ses compétences ». Il passe un baccalauréat littéraire, mais le sport reste son domaine de prédilection[1].
-Il reçoit à l'âge de dix-sept ans une proposition pour intégrer le centre de formation basket-études de Toulouse, proposition qu'il refuse, préférant rester à Saint-Denis[4]. Durant ces années, il a fait partie de l'équipe de basket d'Aubervilliers, et joue à un niveau équivalent à la Nationale 3 au poste d'ailier[5] après avoir joué à la JSF Nanterre et à Saint-Denis.
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabien Marsaud est né le 31 juillet 1977, au Blanc-Mesnil, dans le département de la Seine-Saint-Denis. Sa mère est bibliothécaire et son père, Jacques Marsaud, haut fonctionnaire territorial, d'orientation communiste, a été notamment secrétaire général des communes de Noisy-le-Sec et de Saint-Denis et directeur général des services du conseil général du Val-de-Marne puis de la communauté d'agglomération Plaine-Commune. Il vit à Noisy-le-Sec avec ses parents et sa sœur aînée jusqu'en 1981.
+Son parcours scolaire est plutôt classique et très tôt le sport devient une passion. Il écrit ses premiers textes vers l'âge de quinze ans, mais le sport l'emporte. Le jeune homme aime particulièrement le basketball, discipline dans laquelle il est très doué. Selon Bally Bagayoko, son entraîneur (devenu maire-adjoint de Saint-Denis), le jeune Fabien était « un pilier de l'équipe qui adorait transmettre ses compétences ». Il passe un baccalauréat littéraire, mais le sport reste son domaine de prédilection.
+Il reçoit à l'âge de dix-sept ans une proposition pour intégrer le centre de formation basket-études de Toulouse, proposition qu'il refuse, préférant rester à Saint-Denis. Durant ces années, il a fait partie de l'équipe de basket d'Aubervilliers, et joue à un niveau équivalent à la Nationale 3 au poste d'ailier après avoir joué à la JSF Nanterre et à Saint-Denis.
 Après le bac, il passe un diplôme d'études universitaires générales en Sciences et techniques des activités physiques et sportives.
-Le 16 juillet 1997[2], alors qu’il anime une colonie de vacances à Saint-Jean-de-Monts, en Vendée, il fait un plongeon carpé suivi d'une descente à pic dans une piscine insuffisamment remplie. Sa tête heurte le fond, provoquant une fracture des vertèbres cervicales. Évacué en hélicoptère [6],[7], il passe 3 mois en réanimation, avec une trachéotomie dont il garde la cicatrice, et se réveille presque entièrement paralysé. Le pronostic : récupération possible, toutefois, il faut plus probablement s'attendre à des séquelles à vie limitant sa motricité. Le jeune homme retrouve relativement vite l'usage de ses mains. Après plus d'un an en rééducation à l'hôpital, il retrouve une partie de la motricité de ses jambes en 1999.
-Cet accident lui fait envisager une réorientation. Il décroche d'abord son DESS en management sportif[4] et en 2001, il entre dans le service marketing[4] du Stade de France — dans un premier temps.
-Carrière musicale
-En octobre 2003, il découvre le slam[8] lors d'une scène ouverte dans un bar de la place de Clichy, à Paris, où il déclame Cassiopée, son premier texte « de scène »[9],[10]. C'est à cette époque qu'il choisit comme nom de scène, Grand Corps Malade (GCM), par référence à son handicap et à sa grande taille (1,94 m)[5] — un nom « aussi choisi pour son côté sioux »[2].
-Grand Corps Malade participe ensuite à de nombreuses scènes slam, aux côtés du Collectif 129H, et John Pucc'Chocolat. En 2004, il anime Slam’Alikoumen, une prestation slam qui se déroule, un soir par mois, au Café Culturel de Saint-Denis, le quartier général dionysien du style propre à l'auteur, toujours avec son ami John Pucc'. La même année, il fonde « Le Cercle des Poètes sans Instru », un groupe de sept slameurs (formé de John Pucc’, Droopy, Techa, les 129H et lui-même) qui, dans les festivals et les manifestations culturelles, déclament leur poésie[11].
-En 2005, il acquiert une certaine notoriété et élargit son horizon de slameur à d'autres scènes. Il propose, entre autres, plusieurs représentations, seul face au public du Réservoir (club qui sert entre autres aux tournages du Jamel Comedy Club), réalise la première partie du concert de Cheb Mami sur le parvis du Stade de France et celle de Mouss et Hakim à la Boule Noire, etc.[11] À la fin de cette même année, S Petit Nico, lui offre de tenter un habillage musical pour ses textes. Peu de temps après, Fabien Marsaud signe avec le label AZ, ce qui permet au genre musical que l'artiste défend d'être médiatisé, grâce à la sortie, le 27 mars 2006, du premier album de l'artiste intitulé Midi 20. Le nom de l'album reprend celui d'un morceau où il place sa vie à l'échelle d'une journée. Médiatiquement, il est parrainé par Charles Aznavour[12] ; il fait quelques apparitions télévisuelles à la suite de la sortie de l'album (qui est classé 10e sur 200 parmi les meilleures ventes d'albums en 2006[13]) et est invité notamment par Thierry Ardisson. Il joue cette même année dans la pièce de théâtre-music-hall d'Édouard Baer, La folle et véritable vie de Luigi Prizzoti[9]. La tournée réalisée pour le premier album compte près de 120 dates[14]. Les 15 et 16 mai 2006, il a joué à guichets fermés à la Cigale à Paris. Le succès de l'album se concrétise, le 10 mars 2007, par deux Victoires de la musique sur trois nominations.
-Grand Corps Malade fait de nouveau partie de l'actualité du slam en 2008, année où sort son nouvel album, Enfant de la ville, dans les bacs le 31 mars. Cette même année, il participe au Festival d'été international de Québec, ce qui montre sa reconnaissance par le monde francophone. Il anime également des ateliers d'écriture, chez lui, à Saint-Denis. Avec les participants, il sort un disque de neuf titres Génération Slam en novembre 2008. Le titre de ce disque met en avant la diversité des âges des slameurs amateurs[2],[15].
-En 2010, il participe au nouvel album d'I Muvrini en chantant dans la chanson Una terranova. Il participe également au casting vocal du film d'animation Toy Story 3 où il double le personnage de Rictus. En octobre de cette même année, sort son nouvel album 3e temps dont la chanson Roméo kiffe Juliette adapte la célèbre pièce de Shakespeare à l'histoire de deux adolescents d'une banlieue de Paris qui s'aiment, mais dont les religions diffèrent (juive pour la famille de Juliette, musulmane pour celle de Roméo) et dont l'histoire est empêchée par leurs parents. La danseuse Bintou Dembélé, une des figures pionnières du hip hop en France, chorégraphie le clip de Roméo kiffe Juliette. En 2011, Grand Corps Malade sort un nouveau single en duo avec Reda Taliani Inch'Allah.
-En octobre 2013, il publie son quatrième album studio, Funambule. Le 9 janvier 2015, il publie #JeSuisCharlie en hommage aux victimes de l'attentat contre Charlie Hebdo[16]. En 2018, sort son album Plan B.
-Le 11 septembre 2020 paraît l'album Mesdames, un album en hommage aux femmes, composé de 10 duos féminins avec notamment Véronique Sanson, Louane, Suzane, Laura Smet, Julie et Camille Berthollet, mais aussi Manon, Amuse-Bouche et Alicia, « Parce que l'avenir appartient à celles qu'on aime trop ». Un premier titre sort en juin 2020, Mais je t'aime, en duo avec Camille Lellouche[17] qui remporte en 2021 la Victoire de la chanson originale[18].
-Son producteur est Jean-Rachid, humoriste puis producteur[19].
-Le 10 décembre 2020, après avoir été nommé aux NRJ Music Awards, Grand Corps Malade dévoile son nouveau morceau intitulé Pas essentiel, en affirmant qu'il sera sur le devant de la scène à partir de 2021, et ce, jusqu'en 2022. Il aborde avec ce titre la situation difficile et les conséquences dues à la pandémie de Covid-19[20].
-Le 16 septembre 2022, il publie l'EP Éphémère, en trio avec Ben Mazué et Gaël Faye[21].
-Le 20 octobre 2023 paraît son huitième album studio et le sixième en solo, Reflets[22].
-Vie privée
-Couple
-Fabien Marsaud est marié à Julia Marsaud depuis décembre 2008, avec laquelle il a deux fils[23]. En l'honneur de leurs 10 ans de mariage, il sort en 2018, la chanson Dimanche soir[réf. souhaitée].
-Prises de position et engagements
-Lors de la campagne pour l'élection présidentielle de 2007, il soutient la candidate du Parti socialiste Ségolène Royal, pour qui il chante lors de son meeting du 1er mai au stade Charléty[24].
-Il est le parrain de l'association Sourire à la vie, dont le but est d'aider les enfants atteints d'un cancer dont les soins sont en cours[25].
+Le 16 juillet 1997, alors qu’il anime une colonie de vacances à Saint-Jean-de-Monts, en Vendée, il fait un plongeon carpé suivi d'une descente à pic dans une piscine insuffisamment remplie. Sa tête heurte le fond, provoquant une fracture des vertèbres cervicales. Évacué en hélicoptère  il passe 3 mois en réanimation, avec une trachéotomie dont il garde la cicatrice, et se réveille presque entièrement paralysé. Le pronostic : récupération possible, toutefois, il faut plus probablement s'attendre à des séquelles à vie limitant sa motricité. Le jeune homme retrouve relativement vite l'usage de ses mains. Après plus d'un an en rééducation à l'hôpital, il retrouve une partie de la motricité de ses jambes en 1999.
+Cet accident lui fait envisager une réorientation. Il décroche d'abord son DESS en management sportif et en 2001, il entre dans le service marketing du Stade de France — dans un premier temps.
 </t>
         </is>
       </c>
@@ -566,14 +565,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slam</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'auteur contribue à ce que le slam dépasse le cadre intimiste des cafés et des scènes slam. Les textes de ses albums sont parfois a cappella, mais ils sont, normalement accompagnés d'une mélodie minimaliste en arrière-plan qui souligne le texte ; texte qui est dit et non chanté. Fabien Marsaud écrit toujours sans musique, puis celle-ci est créée après en fonction des textes[14]. Grand Corps Malade dit, en parlant de ses albums et de ses tournées : « Je viens du slam. C'est un art a cappella, c'est un art live, il faut qu'il y ait un auditoire pour qu'il y ait du slam. Pour moi, ça n'a pas de sens de dire que c'est un disque de slam parce qu'à partir du moment où ce n'est plus de l'a cappella, à partir du moment où ce n'est pas du live, à partir du moment où ce n'est pas le partage de la scène avec plein d'autres slameurs, pour moi ce n'est plus vraiment du slam. […] Pour moi le disque, la tournée, avec les musiciens c'est autre chose. C'est un autre projet. Je suis un slameur qui a un projet musical […] »[14].
-Il poursuit son engagement pour la diffusion du slam, notamment dans le cadre scolaire, en initiant en 2016, une recherche-action expérimentale au sein du ministère de l'Éducation nationale[26]. Cette recherche-action aboutit en 2017 à la publication d'un document-cadre édité par la Direction générale de l'enseignement scolaire, permettant aux enseignants de mettre en œuvre un cycle slam dans leur classe[26].
-Dès 2018, Grand Corps Malade parraine les Trophées Slam à l'école menés par la Ligue Slam de France et la Fondation Culture &amp; Diversité, qui permettent à des élèves de collège de toute la France de s'exprimer en public par la pratique du slam[27].
+          <t>Carrière musicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2003, il découvre le slam lors d'une scène ouverte dans un bar de la place de Clichy, à Paris, où il déclame Cassiopée, son premier texte « de scène »,. C'est à cette époque qu'il choisit comme nom de scène, Grand Corps Malade (GCM), par référence à son handicap et à sa grande taille (1,94 m) — un nom « aussi choisi pour son côté sioux ».
+Grand Corps Malade participe ensuite à de nombreuses scènes slam, aux côtés du Collectif 129H, et John Pucc'Chocolat. En 2004, il anime Slam’Alikoumen, une prestation slam qui se déroule, un soir par mois, au Café Culturel de Saint-Denis, le quartier général dionysien du style propre à l'auteur, toujours avec son ami John Pucc'. La même année, il fonde « Le Cercle des Poètes sans Instru », un groupe de sept slameurs (formé de John Pucc’, Droopy, Techa, les 129H et lui-même) qui, dans les festivals et les manifestations culturelles, déclament leur poésie.
+En 2005, il acquiert une certaine notoriété et élargit son horizon de slameur à d'autres scènes. Il propose, entre autres, plusieurs représentations, seul face au public du Réservoir (club qui sert entre autres aux tournages du Jamel Comedy Club), réalise la première partie du concert de Cheb Mami sur le parvis du Stade de France et celle de Mouss et Hakim à la Boule Noire, etc. À la fin de cette même année, S Petit Nico, lui offre de tenter un habillage musical pour ses textes. Peu de temps après, Fabien Marsaud signe avec le label AZ, ce qui permet au genre musical que l'artiste défend d'être médiatisé, grâce à la sortie, le 27 mars 2006, du premier album de l'artiste intitulé Midi 20. Le nom de l'album reprend celui d'un morceau où il place sa vie à l'échelle d'une journée. Médiatiquement, il est parrainé par Charles Aznavour ; il fait quelques apparitions télévisuelles à la suite de la sortie de l'album (qui est classé 10e sur 200 parmi les meilleures ventes d'albums en 2006) et est invité notamment par Thierry Ardisson. Il joue cette même année dans la pièce de théâtre-music-hall d'Édouard Baer, La folle et véritable vie de Luigi Prizzoti. La tournée réalisée pour le premier album compte près de 120 dates. Les 15 et 16 mai 2006, il a joué à guichets fermés à la Cigale à Paris. Le succès de l'album se concrétise, le 10 mars 2007, par deux Victoires de la musique sur trois nominations.
+Grand Corps Malade fait de nouveau partie de l'actualité du slam en 2008, année où sort son nouvel album, Enfant de la ville, dans les bacs le 31 mars. Cette même année, il participe au Festival d'été international de Québec, ce qui montre sa reconnaissance par le monde francophone. Il anime également des ateliers d'écriture, chez lui, à Saint-Denis. Avec les participants, il sort un disque de neuf titres Génération Slam en novembre 2008. Le titre de ce disque met en avant la diversité des âges des slameurs amateurs,.
+En 2010, il participe au nouvel album d'I Muvrini en chantant dans la chanson Una terranova. Il participe également au casting vocal du film d'animation Toy Story 3 où il double le personnage de Rictus. En octobre de cette même année, sort son nouvel album 3e temps dont la chanson Roméo kiffe Juliette adapte la célèbre pièce de Shakespeare à l'histoire de deux adolescents d'une banlieue de Paris qui s'aiment, mais dont les religions diffèrent (juive pour la famille de Juliette, musulmane pour celle de Roméo) et dont l'histoire est empêchée par leurs parents. La danseuse Bintou Dembélé, une des figures pionnières du hip hop en France, chorégraphie le clip de Roméo kiffe Juliette. En 2011, Grand Corps Malade sort un nouveau single en duo avec Reda Taliani Inch'Allah.
+En octobre 2013, il publie son quatrième album studio, Funambule. Le 9 janvier 2015, il publie #JeSuisCharlie en hommage aux victimes de l'attentat contre Charlie Hebdo. En 2018, sort son album Plan B.
+Le 11 septembre 2020 paraît l'album Mesdames, un album en hommage aux femmes, composé de 10 duos féminins avec notamment Véronique Sanson, Louane, Suzane, Laura Smet, Julie et Camille Berthollet, mais aussi Manon, Amuse-Bouche et Alicia, « Parce que l'avenir appartient à celles qu'on aime trop ». Un premier titre sort en juin 2020, Mais je t'aime, en duo avec Camille Lellouche qui remporte en 2021 la Victoire de la chanson originale.
+Son producteur est Jean-Rachid, humoriste puis producteur.
+Le 10 décembre 2020, après avoir été nommé aux NRJ Music Awards, Grand Corps Malade dévoile son nouveau morceau intitulé Pas essentiel, en affirmant qu'il sera sur le devant de la scène à partir de 2021, et ce, jusqu'en 2022. Il aborde avec ce titre la situation difficile et les conséquences dues à la pandémie de Covid-19.
+Le 16 septembre 2022, il publie l'EP Éphémère, en trio avec Ben Mazué et Gaël Faye.
+Le 20 octobre 2023 paraît son huitième album studio et le sixième en solo, Reflets.
 </t>
         </is>
       </c>
@@ -599,53 +612,246 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabien Marsaud est marié à Julia Marsaud depuis décembre 2008, avec laquelle il a deux fils. En l'honneur de leurs 10 ans de mariage, il sort en 2018, la chanson Dimanche soir[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Prises de position et engagements</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la campagne pour l'élection présidentielle de 2007, il soutient la candidate du Parti socialiste Ségolène Royal, pour qui il chante lors de son meeting du 1er mai au stade Charléty.
+Il est le parrain de l'association Sourire à la vie, dont le but est d'aider les enfants atteints d'un cancer dont les soins sont en cours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Slam</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur contribue à ce que le slam dépasse le cadre intimiste des cafés et des scènes slam. Les textes de ses albums sont parfois a cappella, mais ils sont, normalement accompagnés d'une mélodie minimaliste en arrière-plan qui souligne le texte ; texte qui est dit et non chanté. Fabien Marsaud écrit toujours sans musique, puis celle-ci est créée après en fonction des textes. Grand Corps Malade dit, en parlant de ses albums et de ses tournées : « Je viens du slam. C'est un art a cappella, c'est un art live, il faut qu'il y ait un auditoire pour qu'il y ait du slam. Pour moi, ça n'a pas de sens de dire que c'est un disque de slam parce qu'à partir du moment où ce n'est plus de l'a cappella, à partir du moment où ce n'est pas du live, à partir du moment où ce n'est pas le partage de la scène avec plein d'autres slameurs, pour moi ce n'est plus vraiment du slam. […] Pour moi le disque, la tournée, avec les musiciens c'est autre chose. C'est un autre projet. Je suis un slameur qui a un projet musical […] ».
+Il poursuit son engagement pour la diffusion du slam, notamment dans le cadre scolaire, en initiant en 2016, une recherche-action expérimentale au sein du ministère de l'Éducation nationale. Cette recherche-action aboutit en 2017 à la publication d'un document-cadre édité par la Direction générale de l'enseignement scolaire, permettant aux enseignants de mettre en œuvre un cycle slam dans leur classe.
+Dès 2018, Grand Corps Malade parraine les Trophées Slam à l'école menés par la Ligue Slam de France et la Fondation Culture &amp; Diversité, qui permettent à des élèves de collège de toute la France de s'exprimer en public par la pratique du slam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Récompenses
-Victoires de la musique 2007 : Victoire de l'artiste révélation scène et Victoire de l'album révélation[28]
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Victoires de la musique 2007 : Victoire de l'artiste révélation scène et Victoire de l'album révélation
 Prix Félix 2009 de l'ADISQ (ADISQ) : Prix de l'artiste de la francophonie s'étant le plus illustré au Québec
-Victoires de la musique 2021 : Victoire de la chanson originale pour Mais je t'aime
-Nominations
-Victoires de la musique 2007 : Victoire de l'artiste révélation du public
-Prix Félix 2007 de l'ADISQ (ADISQ) : Prix de l'artiste de la francophonie s'étant le plus illustré au Québec[29].
+Victoires de la musique 2021 : Victoire de la chanson originale pour Mais je t'aime</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Victoires de la musique 2007 : Victoire de l'artiste révélation du public
+Prix Félix 2007 de l'ADISQ (ADISQ) : Prix de l'artiste de la francophonie s'étant le plus illustré au Québec.
 Lumières 2018 : Lumière du meilleur premier film pour Patients
 César 2018 : César du meilleur film, César du meilleur premier film (avec Mehdi Idir) et César de la meilleure adaptation (avec Fadette Drouard) pour Patients
 NRJ Music Awards 2020 : clip de l'année pour Pendant 24 h
 Victoires de la musique 2021 : Victoire de l'album pour Mesdames
-NRJ Music Awards 2022 : Tournée francophone de l'année
-Décoration
- Commandeur de l'ordre des Arts et des Lettres en mars 2017[30] ; officier en juillet 2014[31] ; chevalier en juillet 2008[32]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Grand_Corps_Malade</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_Corps_Malade</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+NRJ Music Awards 2022 : Tournée francophone de l'année</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de l'ordre des Arts et des Lettres en mars 2017 ; officier en juillet 2014 ; chevalier en juillet 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Corps_Malade</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Hommages et parodies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
